--- a/Cotizaciones/1/BOM.xlsx
+++ b/Cotizaciones/1/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Computacion Grafica\main\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7D5268-76BB-439D-BC77-E532263CDD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A12156-A625-4E25-986C-AF8534DDE27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,6 +156,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1078,7 +1079,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2">
         <v>12000</v>
@@ -1192,7 +1193,7 @@
       </c>
       <c r="G12" s="3">
         <f>SUMPRODUCT(F2:F11,G2:G11)</f>
-        <v>143000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1201,7 +1202,7 @@
       </c>
       <c r="G13" s="3">
         <f>G12*0.25</f>
-        <v>35750</v>
+        <v>41750</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1210,7 +1211,7 @@
       </c>
       <c r="G14" s="3">
         <f>G12+G13</f>
-        <v>178750</v>
+        <v>208750</v>
       </c>
     </row>
   </sheetData>
